--- a/Test/Results/Error/ErrorBO.xlsx
+++ b/Test/Results/Error/ErrorBO.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3100038629305778</v>
+        <v>0.3150863714628267</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3920886505015355</v>
+        <v>0.2535847504305838</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2114296383754374</v>
+        <v>0.2335505816741358</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3367722969113822</v>
+        <v>0.1541392404742506</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2306043552627099</v>
+        <v>0.1822118375054049</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1116820578568658</v>
+        <v>0.1142846460610633</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2659112320246014</v>
+        <v>0.2307772630828095</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1530722313059632</v>
+        <v>0.2467232957161817</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1573113012469935</v>
+        <v>0.166843543937145</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06505898694725133</v>
+        <v>0.19203433561094</v>
       </c>
     </row>
   </sheetData>
